--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9C98D-01C0-4CF3-8BE8-E71A0FBD5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA139011-85AF-45E6-89E3-C47BF5D0FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -127,6 +128,45 @@
   </si>
   <si>
     <t>Pre-assessment</t>
+  </si>
+  <si>
+    <t>Product Master</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>&lt;Add Product&gt;</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Smart phone</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Smart Phone</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
   </si>
 </sst>
 </file>
@@ -487,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2C8AF-3A79-4453-B2EE-7F76D4B77BBE}">
   <dimension ref="E1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -670,4 +710,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524FEA6-3A93-4B19-9A64-7334D94AE91F}">
+  <dimension ref="D4:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>85000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA139011-85AF-45E6-89E3-C47BF5D0FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364F9B6-FABB-46E5-9D1C-F309E6D3E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -167,19 +168,42 @@
   </si>
   <si>
     <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>company name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,9 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,33 +558,33 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:12">
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:12">
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:12">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:12">
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:12">
       <c r="J6" t="s">
         <v>10</v>
       </c>
@@ -565,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12">
       <c r="E7" t="s">
         <v>1</v>
       </c>
@@ -579,7 +606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -593,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -601,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12">
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
@@ -609,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12">
       <c r="E12">
         <v>10</v>
       </c>
@@ -632,7 +659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12">
       <c r="E13">
         <v>20</v>
       </c>
@@ -644,12 +671,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12">
       <c r="J14">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12">
       <c r="J15" t="s">
         <v>19</v>
       </c>
@@ -657,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12">
       <c r="J16" t="s">
         <v>21</v>
       </c>
@@ -668,12 +695,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:11">
       <c r="J18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:11">
       <c r="J19" t="s">
         <v>19</v>
       </c>
@@ -681,7 +708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:11">
       <c r="J20" t="s">
         <v>25</v>
       </c>
@@ -689,7 +716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11">
       <c r="J21" t="s">
         <v>21</v>
       </c>
@@ -697,12 +724,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11">
       <c r="I23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11">
       <c r="J24" t="s">
         <v>29</v>
       </c>
@@ -716,22 +743,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524FEA6-3A93-4B19-9A64-7334D94AE91F}">
   <dimension ref="D4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:7">
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:7">
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -742,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7">
       <c r="E6" t="s">
         <v>34</v>
       </c>
@@ -753,7 +780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7">
       <c r="E7" t="s">
         <v>35</v>
       </c>
@@ -764,7 +791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7">
       <c r="E8" t="s">
         <v>36</v>
       </c>
@@ -775,17 +802,17 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:7">
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:7">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -799,7 +826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:7">
       <c r="D13">
         <v>1</v>
       </c>
@@ -813,7 +840,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:7">
       <c r="D14">
         <v>2</v>
       </c>
@@ -825,6 +852,43 @@
       </c>
       <c r="G14">
         <v>85000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79316B-A55D-4873-A7EA-EC5D24BE32F9}">
+  <dimension ref="C4:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="3:7">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364F9B6-FABB-46E5-9D1C-F309E6D3E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF47E91-700C-4ADF-ADE1-45E2F17FB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="users" sheetId="3" r:id="rId3"/>
+    <sheet name="TempConverter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -186,6 +187,21 @@
   </si>
   <si>
     <t>company name</t>
+  </si>
+  <si>
+    <t>Temperature Converter</t>
+  </si>
+  <si>
+    <t>&lt;text&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Convert&gt;</t>
+  </si>
+  <si>
+    <t>Enter temp in Fahrenheit</t>
+  </si>
+  <si>
+    <t>Temp in Celcius</t>
   </si>
 </sst>
 </file>
@@ -863,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79316B-A55D-4873-A7EA-EC5D24BE32F9}">
   <dimension ref="C4:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -894,4 +910,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D37F0A-1DDF-49A8-B503-C4DCE10D8C11}">
+  <dimension ref="C4:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4">
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF47E91-700C-4ADF-ADE1-45E2F17FB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8634F7-25A6-4A93-8116-6E0C7B5E188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="users" sheetId="3" r:id="rId3"/>
     <sheet name="TempConverter" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -202,6 +203,54 @@
   </si>
   <si>
     <t>Temp in Celcius</t>
+  </si>
+  <si>
+    <t>Employee Master</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>&lt;Add Employee&gt;</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>&lt;Delete&gt;</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>&lt;Edit&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Update Employee&gt;</t>
+  </si>
+  <si>
+    <t>Search By</t>
+  </si>
+  <si>
+    <t>&lt;department&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt;</t>
   </si>
 </sst>
 </file>
@@ -222,7 +271,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +284,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,16 +305,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D37F0A-1DDF-49A8-B503-C4DCE10D8C11}">
   <dimension ref="C4:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -952,4 +1031,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BE75-80DB-4776-AE7A-85DAE3CCA411}">
+  <dimension ref="D2:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10">
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="F11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8634F7-25A6-4A93-8116-6E0C7B5E188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE481F22-F32C-424B-BC1E-47E4AFEEDE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="D2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE481F22-F32C-424B-BC1E-47E4AFEEDE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7751677-8A87-4EB9-80EA-2876952CDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="D2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7751677-8A87-4EB9-80EA-2876952CDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF9CAF-A18E-44A0-9391-C908FAA71BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>&lt;Search&gt;</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>&lt;Update Product&gt;</t>
   </si>
 </sst>
 </file>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524FEA6-3A93-4B19-9A64-7334D94AE91F}">
-  <dimension ref="D4:G14"/>
+  <dimension ref="E4:I14"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,23 +854,12 @@
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7">
+    <row r="4" spans="5:9">
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="4:7">
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7">
+    <row r="6" spans="5:9">
       <c r="E6" t="s">
         <v>34</v>
       </c>
@@ -875,9 +870,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="4:7">
+    <row r="7" spans="5:9">
       <c r="E7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -886,7 +881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="5:9">
       <c r="E8" t="s">
         <v>36</v>
       </c>
@@ -897,20 +892,20 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="5:9">
       <c r="F9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="4:7">
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
         <v>34</v>
       </c>
@@ -920,11 +915,14 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="D13">
-        <v>1</v>
-      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
         <v>41</v>
       </c>
@@ -934,11 +932,14 @@
       <c r="G13">
         <v>65000</v>
       </c>
-    </row>
-    <row r="14" spans="4:7">
-      <c r="D14">
-        <v>2</v>
-      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
         <v>42</v>
       </c>
@@ -947,6 +948,12 @@
       </c>
       <c r="G14">
         <v>85000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BE75-80DB-4776-AE7A-85DAE3CCA411}">
   <dimension ref="D2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF9CAF-A18E-44A0-9391-C908FAA71BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA1F71-D195-4A92-8E8A-14DF4CC30132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>&lt;Update Product&gt;</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>&lt;brand name&gt;</t>
+  </si>
+  <si>
+    <t>prince range</t>
+  </si>
+  <si>
+    <t>&lt;min&gt;</t>
+  </si>
+  <si>
+    <t>&lt;max&gt;</t>
   </si>
 </sst>
 </file>
@@ -842,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524FEA6-3A93-4B19-9A64-7334D94AE91F}">
-  <dimension ref="E4:I14"/>
+  <dimension ref="E4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,59 +915,86 @@
         <v>72</v>
       </c>
     </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="11" spans="5:9">
-      <c r="F11" s="1" t="s">
-        <v>38</v>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
-      <c r="E13" t="s">
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>65000</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
-      <c r="E14" t="s">
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>85000</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I17" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA1F71-D195-4A92-8E8A-14DF4CC30132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B2B244-C63A-450B-AB44-157D3DBF1D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="users" sheetId="3" r:id="rId3"/>
     <sheet name="TempConverter" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="routing" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -272,6 +273,42 @@
   </si>
   <si>
     <t>&lt;max&gt;</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>&lt;Welcome to myecom application&gt;</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>&lt;Sign Up&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Login&gt;</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Welcome to &lt;Name&gt;</t>
   </si>
 </sst>
 </file>
@@ -859,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524FEA6-3A93-4B19-9A64-7334D94AE91F}">
   <dimension ref="E4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1210,4 +1247,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E8475D-F36C-4F3F-AA35-E4301F901DFF}">
+  <dimension ref="D2:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:11">
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\aiml\pythonfullstack\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B2B244-C63A-450B-AB44-157D3DBF1D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9504129-2EA6-4209-9710-6EB2595E791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D98DCE8F-A24A-478D-B820-584D7D4F59B7}"/>
   </bookViews>
@@ -1254,7 +1254,7 @@
   <dimension ref="D2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
